--- a/REGULAR/CHO/MONTEALEGRE, GRETEL MAE.xlsx
+++ b/REGULAR/CHO/MONTEALEGRE, GRETEL MAE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>2/1-3/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-22)</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1083,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1126,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1190,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1250,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1316,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1379,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1477,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1536,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1601,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1644,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1719,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1905,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1971,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2029,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2095,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2151,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2226,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2269,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2335,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2391,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2489,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2552,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2618,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2984,12 +2996,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3166,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.3670000000000009</v>
+        <v>3.3130000000000024</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3215,11 +3227,15 @@
       <c r="A12" s="40">
         <v>44958</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="39">
+        <v>3</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
@@ -3229,22 +3245,24 @@
       <c r="H12" s="39"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="39"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="39">
+        <v>4.6000000000000006E-2</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="9"/>
@@ -3253,13 +3271,17 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B14" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" s="13">
         <v>1.25</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
@@ -3269,20 +3291,22 @@
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="48">
+        <v>44986</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
       <c r="D15" s="39">
-        <v>1</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
@@ -3293,59 +3317,63 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="48">
-        <v>45071</v>
-      </c>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B16" s="15" t="s">
+        <v>45047</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="39">
         <v>1</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="F16" s="20"/>
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="52">
-        <v>45086</v>
+      <c r="J16" s="11"/>
+      <c r="K16" s="48">
+        <v>45071</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B17" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" s="13">
         <v>1.25</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="43">
+        <v>1</v>
+      </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="13">
+      <c r="F17" s="15"/>
+      <c r="G17" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="52">
+        <v>45086</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3365,11 +3393,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B19" s="20"/>
       <c r="C19" s="13">
         <v>1.25</v>
       </c>
@@ -3383,23 +3409,19 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="48">
-        <v>45191</v>
-      </c>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
       </c>
-      <c r="D20" s="39">
-        <v>5</v>
-      </c>
+      <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
@@ -3409,22 +3431,22 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20" t="s">
-        <v>50</v>
+      <c r="K20" s="48">
+        <v>45191</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
       </c>
       <c r="D21" s="39">
-        <v>4.0000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
@@ -3435,11 +3457,13 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -3462,17 +3486,23 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D23" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3480,8 +3510,8 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
-        <v>45292</v>
+      <c r="A24" s="51" t="s">
+        <v>51</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -3499,7 +3529,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3517,7 +3547,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -3535,7 +3565,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3553,7 +3583,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3571,7 +3601,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3589,7 +3619,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3607,7 +3637,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3624,7 +3654,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45505</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -5208,36 +5240,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5350,11 +5398,11 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.6000000000000006E-2</v>
       </c>
       <c r="J3" s="1">
         <v>16</v>
@@ -5405,7 +5453,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>21.742000000000001</v>
+        <v>17.688000000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
